--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3878931.018286815</v>
+        <v>3876554.391339449</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7369472.594436643</v>
+        <v>7369472.594436644</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>333.6957099329078</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.910533536225973</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>40.07641707559267</v>
+        <v>108.0165900216674</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391402018</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.77350972403291</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934973</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603484</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.46096678957</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.46096678957</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1251.46096678957</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>865.6727141913261</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>454.6868094017186</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844856</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159572</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.643294372448</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1324.80586733131</v>
+        <v>603.6036480119287</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1711.405707395431</v>
+        <v>990.2034880760505</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>884.1849331278588</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>884.1849331278588</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>525.9192345211084</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1270.784773191981</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5133,10 +5133,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,52 +5270,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5759,16 +5759,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6215,46 +6215,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.441587788167</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.441587788167</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>954.8188146898437</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463136</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,13 +7257,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883073923</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.36925650589347</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260778999</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788525</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624261</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>650757.0122262526</v>
+        <v>650757.0122262525</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>650757.0122262526</v>
+        <v>650757.0122262525</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632857.9423399025</v>
+        <v>632857.9423399026</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977556</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.539821964954548e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426732053</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26451,7 +26451,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732005</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541491.8306599518</v>
+        <v>-541491.8306599519</v>
       </c>
       <c r="C6" t="n">
-        <v>573259.9529159677</v>
+        <v>573259.9529159681</v>
       </c>
       <c r="D6" t="n">
-        <v>573259.9529159679</v>
+        <v>573259.9529159684</v>
       </c>
       <c r="E6" t="n">
-        <v>170242.6508225705</v>
+        <v>170207.9128971355</v>
       </c>
       <c r="F6" t="n">
-        <v>677728.0924471169</v>
+        <v>677693.3545216809</v>
       </c>
       <c r="G6" t="n">
-        <v>677728.0924471166</v>
+        <v>677693.3545216809</v>
       </c>
       <c r="H6" t="n">
-        <v>677728.0924471171</v>
+        <v>677693.3545216806</v>
       </c>
       <c r="I6" t="n">
-        <v>677728.092447117</v>
+        <v>677693.3545216814</v>
       </c>
       <c r="J6" t="n">
-        <v>510122.9146371346</v>
+        <v>510088.1767116986</v>
       </c>
       <c r="K6" t="n">
-        <v>677728.0924471169</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="L6" t="n">
-        <v>677728.0924471169</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="M6" t="n">
-        <v>545120.7987181901</v>
+        <v>545086.0607927543</v>
       </c>
       <c r="N6" t="n">
-        <v>677728.0924471167</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="O6" t="n">
-        <v>677728.0924471169</v>
+        <v>677693.3545216807</v>
       </c>
       <c r="P6" t="n">
-        <v>677728.0924471166</v>
+        <v>677693.354521681</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000395</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>77.85199284004619</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.9214466457113</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>325.1964746954148</v>
+        <v>257.2563017493401</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27673,7 +27673,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679171</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>53.81584707847268</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.1568603482289</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596874</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31853,13 +31853,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317922</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>397.3005887879341</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202787</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146272</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
